--- a/Input/2122 final/Other Info.xlsx
+++ b/Input/2122 final/Other Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tunayoshi\Desktop\2122 1st\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\Input\2122 final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E75AF4-5029-472F-9551-B6D80196AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEB3566-FB45-4773-895D-4372B74A271C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="18514" windowHeight="10834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科目名稱對照" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>科目中文名</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>2E</t>
+  </si>
+  <si>
+    <t>體育</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -844,17 +850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.875" customWidth="1"/>
-    <col min="4" max="5" width="9.125" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,7 +868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -870,7 +876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -878,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -886,7 +892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -894,7 +900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -902,7 +908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -910,7 +916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -918,7 +924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -926,7 +932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -934,7 +940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -942,7 +948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -950,7 +956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
@@ -958,7 +964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
@@ -966,7 +972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -974,7 +980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
@@ -982,7 +988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -990,7 +996,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -1030,51 +1036,55 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="10"/>
     </row>
@@ -1088,16 +1098,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB3DE46-C4CC-408E-805E-F63E37CEB6D9}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1139,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1147,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1155,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>101</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1203,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1219,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1235,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1265,7 +1275,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1283,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1291,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1313,7 +1323,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1321,7 +1331,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -1329,23 +1339,23 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
@@ -1362,12 +1372,12 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +1417,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1495,7 +1505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1511,7 +1521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1519,7 +1529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1551,7 +1561,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1577,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1583,7 +1593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -1599,23 +1609,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
     </row>
